--- a/data/income_statement/2digits/total/20_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/20_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>20-Manufacture of chemicals and chemical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>20-Manufacture of chemicals and chemical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>24943744.29473</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>30565751.17467</v>
+        <v>30565751.17467001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>40851774.93887</v>
+        <v>40851774.93887001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>42988589.00451</v>
+        <v>43927061.85455</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>48100293.11036999</v>
+        <v>48102094.71103</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>54609895.50625001</v>
+        <v>56016717.82260001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>56217237.27278999</v>
+        <v>61946311.93454999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>66529694.37430999</v>
+        <v>66765806.03738</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>87343640.38385999</v>
+        <v>87343640.38386001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>122124408.25924</v>
+        <v>122194126.67071</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>143229420.89625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>143548377.52244</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>184381185.098</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>19503016.45747</v>
@@ -995,115 +906,130 @@
         <v>24226096.94864</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>31172545.89834</v>
+        <v>31172545.89834001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>32974852.37178001</v>
+        <v>33832346.02303001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>37081927.12123</v>
+        <v>37083722.86802</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>42250023.2901</v>
+        <v>43564269.93596</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>43490743.55843</v>
+        <v>47752316.57935</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>52255813.15351</v>
+        <v>52466779.42596</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>67035500.28954999</v>
+        <v>67035500.28955</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>88918473.42713</v>
+        <v>88978579.14298001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>106125870.13808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>106428292.67979</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>142057329.256</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5213645.6952</v>
+        <v>5213645.695199999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6160828.921909999</v>
+        <v>6160828.92191</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>9286751.600119999</v>
+        <v>9286751.600120001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>9683911.511269998</v>
+        <v>9751489.577889999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>10580396.97021</v>
+        <v>10580399.71558</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11879377.27256</v>
+        <v>11964022.04376</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>12294699.49809</v>
+        <v>13550278.74807</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>13550486.95063</v>
+        <v>13575475.22158</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>19564202.41568</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>31612025.80611001</v>
+        <v>31621152.93652</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>35778209.50212999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>35792962.73306</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>40262039.314</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>227082.14206</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>178825.3041200001</v>
+        <v>178825.30412</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>392477.44041</v>
+        <v>392477.4404100002</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>329825.1214600001</v>
+        <v>343226.2536300001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>437969.01893</v>
+        <v>437972.1274300001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>480494.9435899999</v>
+        <v>488425.8428799999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>431794.2162700001</v>
+        <v>643716.60713</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>723394.2701699999</v>
+        <v>723551.3898400001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>743937.6786299999</v>
+        <v>743937.67863</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1593909.026</v>
+        <v>1594394.59121</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1325341.25604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1327122.10959</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2061816.528</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1987953.83514</v>
@@ -1112,37 +1038,42 @@
         <v>2477670.15552</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2783825.134859999</v>
+        <v>2783825.13486</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2729417.47079</v>
+        <v>2886480.320920001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3211846.98205</v>
+        <v>3211908.40705</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4038011.95974</v>
+        <v>4056967.075999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4535022.992110001</v>
+        <v>4786345.16819</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5235832.489560001</v>
+        <v>5242128.634140002</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5333289.16735</v>
+        <v>5333289.167350001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>7104485.29193</v>
+        <v>7104802.362579999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7858598.92735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7868155.473309999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>10890700.231</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>257482.50874</v>
@@ -1154,34 +1085,39 @@
         <v>306646.05006</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>345559.7484299999</v>
+        <v>379623.96662</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>360614.7586600001</v>
+        <v>360676.1836599999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>468949.08867</v>
+        <v>474841.48894</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>600387.17925</v>
+        <v>718616.8051500001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1196926.13267</v>
+        <v>1199773.25306</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>698586.7973000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1175382.45434</v>
+        <v>1175698.94665</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1205400.27876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1207736.23276</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1863045.448</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1615725.34915</v>
@@ -1190,37 +1126,42 @@
         <v>2072488.65443</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2294418.3882</v>
+        <v>2294418.388199999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2188777.09101</v>
+        <v>2311775.72295</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2662924.847730001</v>
+        <v>2662924.84773</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3246682.88466</v>
+        <v>3259739.42644</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3560963.71988</v>
+        <v>3585389.18362</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3699441.89395</v>
+        <v>3702805.96826</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>4207515.46466</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5196131.59361</v>
+        <v>5196132.171949999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5887950.663020001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5894743.229809999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>7851502.138</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>114745.97725</v>
@@ -1229,7 +1170,7 @@
         <v>117581.09818</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>182760.6966000001</v>
+        <v>182760.6966</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>195080.63135</v>
@@ -1238,13 +1179,13 @@
         <v>188307.37566</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>322379.98641</v>
+        <v>322386.16062</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>373672.09298</v>
+        <v>482339.1794199999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>339464.4629400001</v>
+        <v>339549.4128199999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>427186.90539</v>
@@ -1253,13 +1194,18 @@
         <v>732971.24398</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>765247.98557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>765676.0107400001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1176152.645</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>22955790.45959</v>
@@ -1271,34 +1217,39 @@
         <v>38067949.80401</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>40259171.53372001</v>
+        <v>41040581.53363</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>44888446.12831999</v>
+        <v>44890186.30397999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>50571883.54651</v>
+        <v>51959750.74659999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>51682214.28068</v>
+        <v>57159966.76636</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>61293861.88475</v>
+        <v>61523677.40324</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>82010351.21650998</v>
+        <v>82010351.21651001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>115019922.96731</v>
+        <v>115089324.30813</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>135370821.9689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>135680222.04913</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>173490484.867</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>17971353.56837</v>
@@ -1310,34 +1261,39 @@
         <v>29732241.28066</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>32149493.73094</v>
+        <v>32706575.65153</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>34901478.73792</v>
+        <v>34902865.56317</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>39444547.19233</v>
+        <v>40492054.73834001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>39479611.42232999</v>
+        <v>43403896.06497999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>45544987.98342</v>
+        <v>45708700.15473001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>60698157.97716</v>
+        <v>60698157.97716001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>84582730.96767999</v>
+        <v>84647393.42987001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>102613576.71183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>102895396.26893</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>128054784.663</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>13821083.55066</v>
@@ -1349,73 +1305,83 @@
         <v>23675481.35745</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>26674255.01865001</v>
+        <v>27162842.65679</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>28804628.53947</v>
+        <v>28805105.20589</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>31903826.82762</v>
+        <v>32902490.46706999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>31864035.62868</v>
+        <v>35630594.31101</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>36859259.1836</v>
+        <v>36998169.13495</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>49007720.39224</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>68499665.62078999</v>
+        <v>68518905.55904</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>83002224.72067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>83132648.29704002</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>98544200.405</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3869130.229590001</v>
+        <v>3869130.22959</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>3880312.25901</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>5641877.37315</v>
+        <v>5641877.373149998</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5135669.47926</v>
+        <v>5204163.761710001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5759671.224210001</v>
+        <v>5760581.38304</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7143524.86091</v>
+        <v>7172401.06466</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7207271.33014</v>
+        <v>7325654.069159999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8148185.65078</v>
+        <v>8170909.761270001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>11045934.61818</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>15282527.23794</v>
+        <v>15325590.44013</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>18673930.70425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18763059.15368</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>28264450.218</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>206645.80299</v>
@@ -1433,34 +1399,39 @@
         <v>205887.77845</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>257846.29755</v>
+        <v>264565.27288</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>294889.4808799999</v>
+        <v>308544.81845</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>370807.7752799999</v>
+        <v>372885.8847500001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>438311.5067399999</v>
+        <v>438311.50674</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>505490.8963</v>
+        <v>507487.71506</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>546476.75066</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>555403.99913</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>767354.6090000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>74493.98513</v>
+        <v>74493.98513000002</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>87975.19864999999</v>
+        <v>87975.19865000001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>128498.82396</v>
@@ -1472,10 +1443,10 @@
         <v>131291.19579</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>139349.20625</v>
+        <v>152597.93373</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>113414.98263</v>
+        <v>139102.86636</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>166735.37376</v>
@@ -1484,16 +1455,21 @@
         <v>206191.46</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>295047.2126500001</v>
+        <v>295409.71564</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>390944.53625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>444284.81908</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>478779.431</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>4984436.891220001</v>
@@ -1502,37 +1478,42 @@
         <v>6188457.574200001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>8335708.52335</v>
+        <v>8335708.523349999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>8109677.80278</v>
+        <v>8334005.882099999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>9986967.3904</v>
+        <v>9987320.740809999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>11127336.35418</v>
+        <v>11467696.00826</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>12202602.85835</v>
+        <v>13756070.70138</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>15748873.90133</v>
+        <v>15814977.24851</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>21312193.23935</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>30437191.99963</v>
+        <v>30441930.87826</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>32757245.25707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>32784825.7802</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>45435700.204</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>3116344.01601</v>
@@ -1544,58 +1525,63 @@
         <v>4364524.6733</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4708594.353970001</v>
+        <v>4895237.50617</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5617978.812700001</v>
+        <v>5618400.478399999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>6128999.158170001</v>
+        <v>6366369.588879999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>6496217.280669998</v>
+        <v>7116635.944079999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8030047.92627</v>
+        <v>8083310.73744</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>9729053.110610001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>12502715.72702</v>
+        <v>12516853.68508</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>15194905.4024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15263313.54298</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>17958768.643</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>80345.76648999999</v>
+        <v>80345.76649000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>74675.11893000001</v>
+        <v>74675.11893000003</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>97832.54569999999</v>
+        <v>97832.5457</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>96648.52292</v>
+        <v>105721.46052</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>122979.27464</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>139966.80206</v>
+        <v>145929.27101</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>145345.0242</v>
+        <v>157807.49411</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>189039.40567</v>
+        <v>190276.17534</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>208607.79074</v>
@@ -1604,13 +1590,18 @@
         <v>262726.98035</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>327395.67024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>328063.43908</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>428341.01</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1801389.94619</v>
@@ -1622,34 +1613,39 @@
         <v>2570618.70311</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2730107.45295</v>
+        <v>2874881.12334</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3310836.749640001</v>
+        <v>3310978.0354</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3533752.28105</v>
+        <v>3721441.43931</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3700009.53631</v>
+        <v>4051420.018939999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4501320.481170001</v>
+        <v>4538054.741269999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>5686341.037990001</v>
+        <v>5686341.03799</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>7424211.604869999</v>
+        <v>7425821.55928</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>8409852.88978</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>8424039.55869</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>10215138</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1234608.30333</v>
@@ -1661,112 +1657,127 @@
         <v>1696073.42449</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1881838.3781</v>
+        <v>1914634.92231</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2184162.788420001</v>
+        <v>2184443.16836</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2455280.075059999</v>
+        <v>2498998.878560001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2650862.72016</v>
+        <v>2907408.431029999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3339688.039429999</v>
+        <v>3354979.82083</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3834104.281880001</v>
+        <v>3834104.28188</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4815777.141799999</v>
+        <v>4828305.145450001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6457656.84238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6511210.54521</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>7315289.633</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1868092.87521</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2522558.406129999</v>
+        <v>2522558.40613</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>3971183.85005</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>3401083.44881</v>
+        <v>3438768.37593</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4368988.577700001</v>
+        <v>4368920.26241</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4998337.19601</v>
+        <v>5101326.419379999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5706385.577679999</v>
+        <v>6639434.757299999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7718825.975059998</v>
+        <v>7731666.51107</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>11583140.12874</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>17934476.27261</v>
+        <v>17925077.19318</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>17562339.85467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17521512.23721999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>27476931.561</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1196572.77651</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1358800.554280001</v>
+        <v>1358800.55428</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>1753648.67157</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1575068.25841</v>
+        <v>1614063.98185</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2435751.994970001</v>
+        <v>2435762.95285</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3531233.162519999</v>
+        <v>3746728.16273</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4048542.9545</v>
+        <v>4894848.21991</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5765892.391460001</v>
+        <v>5777856.46015</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>8243998.392320001</v>
+        <v>8243998.39232</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>25279912.84721</v>
+        <v>25284264.08336</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>34361985.87321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>34365622.66715</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>23228777.58</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>79439.51029000001</v>
@@ -1778,16 +1789,16 @@
         <v>76588.11178000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>68542.81485000001</v>
+        <v>68842.81284999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>91088.61817999999</v>
+        <v>91088.61818</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>60509.67206</v>
+        <v>68101.02292999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>53207.58127999999</v>
+        <v>57937.63574000001</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>190111.13327</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>535000.22548</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>515665.492</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>9336.008599999999</v>
@@ -1823,28 +1839,33 @@
         <v>21213.04928</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>17798.76906</v>
+        <v>81045.14001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>73224.28795</v>
+        <v>94944.20645</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>229303.90759</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>277059.2856899999</v>
+        <v>277059.28569</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>875540.2191799999</v>
+        <v>875540.21918</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>826212.96236</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>362089.169</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>125520.46201</v>
@@ -1853,61 +1874,66 @@
         <v>102996.75244</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>169058.30362</v>
+        <v>169058.3036200001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>166071.74371</v>
+        <v>175959.68372</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>179845.40778</v>
+        <v>179849.59616</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>275342.46675</v>
+        <v>283719.36595</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>367082.71361</v>
+        <v>430931.332</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>584813.1122699997</v>
+        <v>584953.69442</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>648500.9753500001</v>
+        <v>648500.9753499998</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1323707.43627</v>
+        <v>1323954.4156</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1269351.96747</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1271156.0188</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1405360.717</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>10822.84322</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5393.330860000001</v>
+        <v>5393.33086</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>7624.1176</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>6189.593279999999</v>
+        <v>6189.593280000001</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>7925.884129999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7238.08373</v>
+        <v>8557.93599</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>8125.65759</v>
+        <v>9356.930619999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>9281.49026</v>
+        <v>9281.490260000002</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>13440.06335</v>
@@ -1916,16 +1942,21 @@
         <v>18675.53644</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>24462.27269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>21371.71647</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>92686.098</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>42801.21545</v>
+        <v>42801.21545000001</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>32559.21564</v>
@@ -1937,16 +1968,16 @@
         <v>27605.92312</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>44042.86876999999</v>
+        <v>44044.71757000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>66234.43483</v>
+        <v>66240.40509</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>82047.19620000001</v>
+        <v>83675.95386999998</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>86350.55337000001</v>
+        <v>87678.39701</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>105305.41009</v>
@@ -1955,13 +1986,18 @@
         <v>70184.24316</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>98354.04509</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>100227.15387</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>130253.007</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2327.48341</v>
@@ -1979,67 +2015,77 @@
         <v>310792.58589</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>646198.8639200001</v>
+        <v>646957.4225099999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>9713.94204</v>
+        <v>20066.82615</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>24584.41731</v>
+        <v>24584.64702</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>113456.31741</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>360545.01509</v>
+        <v>360545.0219599999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>281804.36969</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>281804.50507</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>523004.83</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>726698.0235400001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>984647.8282099999</v>
+        <v>984647.8282100001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>1245753.62981</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1029454.56627</v>
+        <v>1058262.3517</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1433907.46681</v>
+        <v>1433912.38751</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1934002.94261</v>
+        <v>2061203.23608</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3070143.63424</v>
+        <v>3785480.5703</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4074950.61572</v>
+        <v>4079768.84397</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6377288.331399999</v>
+        <v>6377288.3314</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>21382090.88848</v>
+        <v>21385728.24313</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>30162675.43136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>30164866.92002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>18669411.252</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>13834.13547</v>
@@ -2048,7 +2094,7 @@
         <v>8902.30451</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>7976.24681</v>
+        <v>7976.246809999999</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>9644.817130000001</v>
@@ -2057,13 +2103,13 @@
         <v>36348.109</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>82876.17349</v>
+        <v>82876.17349000002</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>90346.60892999999</v>
+        <v>94094.537</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>173369.62605</v>
+        <v>173503.41978</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>164124.62176</v>
@@ -2072,19 +2118,24 @@
         <v>296612.11417</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>410062.2865799999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>408950.7595599999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>295036.397</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>7667.22826</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>40.87424</v>
+        <v>40.87424000000001</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>370.08467</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>390.8895</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>118.644</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>178125.86626</v>
@@ -2126,37 +2182,42 @@
         <v>145562.06369</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>203674.3686399999</v>
+        <v>203674.36864</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>250715.67658</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>310397.4008</v>
+        <v>310397.4007999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>441031.7560700001</v>
+        <v>448027.46068</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>294598.24177</v>
+        <v>318307.13689</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>392966.92667</v>
+        <v>398510.31788</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>517696.32219</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>685182.03203</v>
+        <v>685648.92733</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>753671.42299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>755641.51602</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1235151.974</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1010294.25279</v>
@@ -2168,34 +2229,39 @@
         <v>1672130.6759</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1079273.9959</v>
+        <v>1085243.79038</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2011109.84957</v>
+        <v>2011112.309679999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2307057.0112</v>
+        <v>2386677.01579</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3544756.408639999</v>
+        <v>4057868.87559</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4776174.656489999</v>
+        <v>4790307.35028</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>6511002.231490001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>19618487.82127</v>
+        <v>19622035.86657</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>30325821.15033</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>30328736.28786999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>19158014.232</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>24483.72463</v>
@@ -2207,82 +2273,92 @@
         <v>34194.48918</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>35710.18603</v>
+        <v>35710.18602999999</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>36395.96042</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>38609.71322</v>
+        <v>38897.44633</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>27427.48976</v>
+        <v>51068.10315</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>55423.14290000001</v>
+        <v>55615.91572999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>68017.33674</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>112418.93578</v>
+        <v>112419.94302</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>137768.79362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>137776.67306</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>143867.943</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>136138.90244</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>61447.95898</v>
+        <v>61447.95897999999</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>127394.21813</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>103582.63828</v>
+        <v>105605.29597</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>134790.67701</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>113605.64019</v>
+        <v>115878.56076</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>182685.42261</v>
+        <v>188245.35587</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>267833.41424</v>
+        <v>271436.91606</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>197349.76774</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>291320.4519700001</v>
+        <v>291386.44676</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>373527.87665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>382580.5342</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>438745.991</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6249.244140000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>6983.89495</v>
+        <v>6983.894950000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>865.2298499999999</v>
+        <v>865.2298500000001</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>16038.08668</v>
@@ -2291,10 +2367,10 @@
         <v>17944.65387</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>16123.68341</v>
+        <v>16367.18283</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2490.968170000001</v>
+        <v>2760.119540000001</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>21651.36192</v>
@@ -2306,52 +2382,62 @@
         <v>220344.52248</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>176570.97556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>175440.06836</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>133196.09</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>706763.75684</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>861179.4941900001</v>
+        <v>861179.4941900002</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>1364874.35119</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>784283.0568199999</v>
+        <v>785979.5222799998</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1624246.47441</v>
+        <v>1624248.93452</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1773034.31598</v>
+        <v>1847666.36491</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3052419.874780001</v>
+        <v>3530285.38573</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4016950.1456</v>
+        <v>4026940.34994</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5770850.85402</v>
+        <v>5770850.854019999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>18249306.70026</v>
+        <v>18252615.46731</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>28894927.74667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>28890088.13632</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>17464988.971</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>9517.826300000001</v>
@@ -2363,7 +2449,7 @@
         <v>8963.5659</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>7417.04926</v>
+        <v>9666.98782</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>56740.54911</v>
@@ -2372,10 +2458,10 @@
         <v>95760.42116</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>97623.05677000001</v>
+        <v>101364.68529</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>178049.80633</v>
+        <v>178205.13943</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>194961.71539</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>366692.9012199999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>404245.97</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>37.03486</v>
@@ -2414,7 +2505,7 @@
         <v>15.84241</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>37.77591</v>
+        <v>43.70811</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>100.71037</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>32.07543</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>329.755</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>127103.76358</v>
@@ -2441,37 +2537,42 @@
         <v>135817.39887</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>132148.77376</v>
+        <v>132149.50653</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>140955.11667</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>269657.48664</v>
+        <v>271841.2892</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>182093.75414</v>
+        <v>184129.3836</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>236229.00959</v>
+        <v>236413.95909</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>236124.58518</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>394108.39443</v>
+        <v>394280.67065</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>376300.78118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>376125.89928</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>572639.512</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>565186.02571</v>
+        <v>565186.0257100002</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>547758.53328</v>
@@ -2480,73 +2581,83 @@
         <v>1109530.35651</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>737600.8055799999</v>
+        <v>760316.1170500001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1290894.74813</v>
+        <v>1290923.36496</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1253199.01577</v>
+        <v>1359331.83528</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1786649.52199</v>
+        <v>2321913.28904</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2835051.34204</v>
+        <v>2839619.157809999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>3490415.6171</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12164574.9537</v>
+        <v>12165402.16905</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8167139.049999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>8132860.125580001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9952230.926000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>474628.8006100001</v>
+        <v>474628.80061</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>437776.5593400002</v>
+        <v>437776.55934</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>816825.82526</v>
+        <v>816825.8252599998</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>623168.28364</v>
+        <v>645883.5951100001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1099268.01002</v>
+        <v>1099296.62685</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1072856.33641</v>
+        <v>1141280.3854</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1498570.31182</v>
+        <v>1928137.32485</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2284197.00453</v>
+        <v>2288764.8203</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2824778.41099</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9654838.684909999</v>
+        <v>9655665.90026</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6477611.99719</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6477362.24197</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>7041810.195</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>90557.22510000001</v>
@@ -2564,67 +2675,77 @@
         <v>191626.73811</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>180342.67936</v>
+        <v>218051.44988</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>288079.21017</v>
+        <v>393775.9641900001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>550854.3375099999</v>
+        <v>550854.33751</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>665637.20611</v>
+        <v>665637.2061100001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>2509736.26879</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1689527.05281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1655497.88361</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2910420.731</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1489185.37322</v>
+        <v>1489185.373219999</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>2255036.93456</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2943171.489209999</v>
+        <v>2943171.48921</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3159276.90574</v>
+        <v>3207272.450350001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3502735.97497</v>
+        <v>3502647.54062</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4969314.33156</v>
+        <v>5102045.731040001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4423522.60155</v>
+        <v>5154500.812579999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5873492.367990001</v>
+        <v>5879596.46313</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>9825720.672470002</v>
+        <v>9825720.67247</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>11431326.34485</v>
+        <v>11421903.24092</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>13431365.52755</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>13425538.49092</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>21595463.983</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>199262.88408</v>
@@ -2636,34 +2757,39 @@
         <v>339598.2553</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>526493.76267</v>
+        <v>530443.64174</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>315584.8373300001</v>
+        <v>315584.83733</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>406787.5096000001</v>
+        <v>583802.3587400002</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>439715.3934299999</v>
+        <v>536352.41081</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>699971.9167900002</v>
+        <v>700690.4256800001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1028103.65413</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1205489.62047</v>
+        <v>1205679.39667</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1303963.29996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1306329.55852</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1851700.54</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>31769.66455</v>
@@ -2684,25 +2810,30 @@
         <v>21171.28439</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>37935.65728</v>
+        <v>38190.17172999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>38212.22563999999</v>
+        <v>38235.30501999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>34866.66953999999</v>
+        <v>34866.66954</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>35657.08491999999</v>
+        <v>35657.22266</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>16127.83459</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>16147.94737</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>303302.379</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>167493.21953</v>
@@ -2711,40 +2842,45 @@
         <v>164944.69934</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>326369.7052400001</v>
+        <v>326369.70524</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>517282.57721</v>
+        <v>521232.45628</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>296547.52497</v>
+        <v>296547.5249699999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>385616.2252100001</v>
+        <v>562631.0743499999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>401779.73615</v>
+        <v>498162.2390799999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>661759.6911499999</v>
+        <v>662455.1206600001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>993236.98459</v>
+        <v>993236.9845900001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1169832.53555</v>
+        <v>1170022.17401</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1287835.46537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1290181.61115</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1548398.161</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>321477.1995099999</v>
+        <v>321477.19951</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>254913.49496</v>
@@ -2753,34 +2889,39 @@
         <v>520465.90565</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>388559.52952</v>
+        <v>393274.15475</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>358705.76929</v>
+        <v>358711.77176</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>436855.2295599999</v>
+        <v>470826.10211</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>539222.8461699999</v>
+        <v>598408.01413</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>710363.6310100001</v>
+        <v>711526.59754</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>644196.1692499998</v>
+        <v>644196.16925</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1205166.58011</v>
+        <v>1206646.27718</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1384747.06168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1377149.36653</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1578324.48</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>163349.76298</v>
@@ -2798,28 +2939,33 @@
         <v>148490.86182</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>112850.98422</v>
+        <v>129072.12901</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>197499.47242</v>
+        <v>225703.86091</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>220398.83374</v>
+        <v>220524.93147</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>221744.288</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>363845.95248</v>
+        <v>363927.86756</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>588448.7061599999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>588473.5128800002</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>641110.835</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>31178.83519</v>
@@ -2831,34 +2977,39 @@
         <v>39641.12462</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>62648.47886</v>
+        <v>62837.66574</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>34374.18758999999</v>
+        <v>34374.18759</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>33851.51932999999</v>
+        <v>48872.30544</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>82636.16198</v>
+        <v>93065.72617000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>49164.95319</v>
+        <v>49390.87898</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>62828.6563</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>105375.4457</v>
+        <v>105448.46091</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>121564.3047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>122078.83778</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>112515.15</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>126948.60134</v>
@@ -2870,34 +3021,39 @@
         <v>373764.7578499999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>216015.7605599999</v>
+        <v>220541.19891</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>175840.71988</v>
+        <v>175846.72235</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>290152.7260099999</v>
+        <v>292881.66766</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>259087.21177</v>
+        <v>279638.42705</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>440799.84408</v>
+        <v>441610.7870900001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>359623.22495</v>
+        <v>359623.2249499999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>735945.1819300001</v>
+        <v>737269.94871</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>674734.0508200001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>666597.01587</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>824698.495</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1366971.05779</v>
@@ -2909,34 +3065,39 @@
         <v>2762303.83886</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3297211.13889</v>
+        <v>3344441.937340001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3459615.04301</v>
+        <v>3459520.606190001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4939246.611599999</v>
+        <v>5215021.987669999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4324015.14881</v>
+        <v>5092445.20926</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5863100.65377</v>
+        <v>5868760.291270001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>10209628.15735</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>11431649.38521</v>
+        <v>11420936.36041</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>13350581.76583</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>13354718.68291</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>21868840.043</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>288689.36346</v>
@@ -2945,37 +3106,42 @@
         <v>358932.0507099999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>402067.7947600001</v>
+        <v>402067.79476</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>606207.8522699999</v>
+        <v>615808.71098</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>599198.79929</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>748550.5379699999</v>
+        <v>790228.797</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>766515.1764199998</v>
+        <v>909434.64237</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>825825.36511</v>
+        <v>828098.0863899998</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1145458.49113</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1390938.03583</v>
+        <v>1391114.22271</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2065566.39131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2067923.37003</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3094452.678</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1078281.69433</v>
@@ -2987,31 +3153,34 @@
         <v>2360236.0441</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2691003.28662</v>
+        <v>2728633.22636</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2860416.24372</v>
+        <v>2860321.8069</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4190696.07363</v>
+        <v>4424793.19067</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3557499.97239</v>
+        <v>4183010.56689</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>5037275.28866</v>
+        <v>5040662.20488</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>9064169.66622</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>10040711.34938</v>
+        <v>10029822.1377</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>11285015.37452</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>11286795.31288</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>18774387.365</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3780</v>
@@ -3041,31 +3213,34 @@
         <v>3876</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3768</v>
+        <v>3770</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3696</v>
+        <v>3702</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3671</v>
+        <v>3688</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3714</v>
+        <v>3760</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3868</v>
+        <v>3895</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4094</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3883</v>
+        <v>4325</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4733</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>